--- a/data/pca/factorExposure/factorExposure_2013-03-04.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-03-04.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0002595328019221931</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.002024440028752295</v>
+      </c>
+      <c r="C2">
+        <v>-0.03213495205664935</v>
+      </c>
+      <c r="D2">
+        <v>0.00224860743431829</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.001850605060925326</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006158114795832693</v>
+      </c>
+      <c r="C4">
+        <v>-0.08467153604796333</v>
+      </c>
+      <c r="D4">
+        <v>0.07990250199617234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0006169662516436507</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01369804757884953</v>
+      </c>
+      <c r="C6">
+        <v>-0.1123174833853592</v>
+      </c>
+      <c r="D6">
+        <v>0.03177699166630422</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.001497412579604447</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004835444470566957</v>
+      </c>
+      <c r="C7">
+        <v>-0.05696383403767369</v>
+      </c>
+      <c r="D7">
+        <v>0.03362945368683067</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.0004149157078036749</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005719686578225838</v>
+      </c>
+      <c r="C8">
+        <v>-0.03931531206389307</v>
+      </c>
+      <c r="D8">
+        <v>0.04284361696501932</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.00408458490724146</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.00427626420690279</v>
+      </c>
+      <c r="C9">
+        <v>-0.0709719464361674</v>
+      </c>
+      <c r="D9">
+        <v>0.07092308335425909</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.004308808236596454</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005388487726953907</v>
+      </c>
+      <c r="C10">
+        <v>-0.05931449508792765</v>
+      </c>
+      <c r="D10">
+        <v>-0.2010178633970718</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.002565028381159903</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005456558786189965</v>
+      </c>
+      <c r="C11">
+        <v>-0.08101675648224363</v>
+      </c>
+      <c r="D11">
+        <v>0.05959459284460905</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.0004842368754822728</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.004062928943389447</v>
+      </c>
+      <c r="C12">
+        <v>-0.06481166275883328</v>
+      </c>
+      <c r="D12">
+        <v>0.04428226640460697</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.003297863970848485</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008666724462791502</v>
+      </c>
+      <c r="C13">
+        <v>-0.06712271774169072</v>
+      </c>
+      <c r="D13">
+        <v>0.06708831343072853</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001269263842900421</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001562505132506067</v>
+      </c>
+      <c r="C14">
+        <v>-0.04731265020707439</v>
+      </c>
+      <c r="D14">
+        <v>0.007998423590428011</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.0009105078865437078</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005979782277891371</v>
+      </c>
+      <c r="C15">
+        <v>-0.04327633375247852</v>
+      </c>
+      <c r="D15">
+        <v>0.030896257153352</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.001162325512793461</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.005025307304460921</v>
+      </c>
+      <c r="C16">
+        <v>-0.06681563416144372</v>
+      </c>
+      <c r="D16">
+        <v>0.04479980215518005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.0001142661899916085</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008801658008037444</v>
+      </c>
+      <c r="C20">
+        <v>-0.06724403136454596</v>
+      </c>
+      <c r="D20">
+        <v>0.04580749062306132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005199649730244593</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009778250317497418</v>
+      </c>
+      <c r="C21">
+        <v>-0.02339690531465762</v>
+      </c>
+      <c r="D21">
+        <v>0.03389905251481466</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01779176297237365</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.0068656752521385</v>
+      </c>
+      <c r="C22">
+        <v>-0.09467612440563017</v>
+      </c>
+      <c r="D22">
+        <v>0.09836938011790701</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01810399041646927</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006686081623249128</v>
+      </c>
+      <c r="C23">
+        <v>-0.09546561020912799</v>
+      </c>
+      <c r="D23">
+        <v>0.09849198269921793</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.00183003589640915</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.005106353423484553</v>
+      </c>
+      <c r="C24">
+        <v>-0.07597386642074334</v>
+      </c>
+      <c r="D24">
+        <v>0.05749579233610105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.00382429956161652</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.002837581168583863</v>
+      </c>
+      <c r="C25">
+        <v>-0.07847144214873179</v>
+      </c>
+      <c r="D25">
+        <v>0.06481154044744138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.005568339802198379</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003525398211378484</v>
+      </c>
+      <c r="C26">
+        <v>-0.0417303370832561</v>
+      </c>
+      <c r="D26">
+        <v>0.02458854887448747</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.003980633718162646</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.001071212710856944</v>
+      </c>
+      <c r="C28">
+        <v>-0.106114460299718</v>
+      </c>
+      <c r="D28">
+        <v>-0.3180661436848705</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.0009509215148902525</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003060064149534616</v>
+      </c>
+      <c r="C29">
+        <v>-0.04960489960290027</v>
+      </c>
+      <c r="D29">
+        <v>0.003774604121844181</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.003241808984547818</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.009027120478209097</v>
+      </c>
+      <c r="C30">
+        <v>-0.1445973864960191</v>
+      </c>
+      <c r="D30">
+        <v>0.1009949018186136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.00106941708810391</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006170229747772252</v>
+      </c>
+      <c r="C31">
+        <v>-0.0452298962782178</v>
+      </c>
+      <c r="D31">
+        <v>0.03318792667504309</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.0002085108103835784</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.003907893756179791</v>
+      </c>
+      <c r="C32">
+        <v>-0.04167657819888077</v>
+      </c>
+      <c r="D32">
+        <v>0.021709794957901</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.002914343490962126</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.008148552464265406</v>
+      </c>
+      <c r="C33">
+        <v>-0.08725000743260523</v>
+      </c>
+      <c r="D33">
+        <v>0.06927795772423398</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004192668293952391</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003938495337329446</v>
+      </c>
+      <c r="C34">
+        <v>-0.05890635701052922</v>
+      </c>
+      <c r="D34">
+        <v>0.05036003248401605</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.002243679182902576</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.004858394746469975</v>
+      </c>
+      <c r="C35">
+        <v>-0.03991509039844568</v>
+      </c>
+      <c r="D35">
+        <v>0.01414738500347462</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004015967219849984</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.00136962325727912</v>
+      </c>
+      <c r="C36">
+        <v>-0.02448096622566215</v>
+      </c>
+      <c r="D36">
+        <v>0.02198697293779495</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002637079799630805</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009438948431544966</v>
+      </c>
+      <c r="C38">
+        <v>-0.03368445583182367</v>
+      </c>
+      <c r="D38">
+        <v>0.01821398421801219</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01229916980618378</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.0008374568176199942</v>
+      </c>
+      <c r="C39">
+        <v>-0.1178030491686206</v>
+      </c>
+      <c r="D39">
+        <v>0.07125620285435827</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.00909092872760075</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002133470054980049</v>
+      </c>
+      <c r="C40">
+        <v>-0.08825967098520753</v>
+      </c>
+      <c r="D40">
+        <v>0.01658274557443112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0002926015213405565</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007239698333706526</v>
+      </c>
+      <c r="C41">
+        <v>-0.03858320979575713</v>
+      </c>
+      <c r="D41">
+        <v>0.03451549835583</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.003026436525049377</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003633661522077</v>
+      </c>
+      <c r="C43">
+        <v>-0.05231424282327306</v>
+      </c>
+      <c r="D43">
+        <v>0.02305190007185155</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.003037850080675669</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003129415238650786</v>
+      </c>
+      <c r="C44">
+        <v>-0.1115284155883154</v>
+      </c>
+      <c r="D44">
+        <v>0.07108664167585067</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001421596555116285</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002304961469053911</v>
+      </c>
+      <c r="C46">
+        <v>-0.03479035739274063</v>
+      </c>
+      <c r="D46">
+        <v>0.02981780550163637</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.0002432852949595257</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002687092476889238</v>
+      </c>
+      <c r="C47">
+        <v>-0.03701501482440024</v>
+      </c>
+      <c r="D47">
+        <v>0.02736346668176439</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.0037016184672956</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006421706048419978</v>
+      </c>
+      <c r="C48">
+        <v>-0.02936081232466434</v>
+      </c>
+      <c r="D48">
+        <v>0.03181329436932893</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01320538210280256</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01493136838087428</v>
+      </c>
+      <c r="C49">
+        <v>-0.1836122744038884</v>
+      </c>
+      <c r="D49">
+        <v>0.01334769125514554</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0006866981283486972</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.00357686963189496</v>
+      </c>
+      <c r="C50">
+        <v>-0.0441145588147307</v>
+      </c>
+      <c r="D50">
+        <v>0.03641076720892526</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0006566113166243022</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004372166890694125</v>
+      </c>
+      <c r="C51">
+        <v>-0.02562166023090565</v>
+      </c>
+      <c r="D51">
+        <v>0.02030128899703204</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0006947030250431521</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02053098713584611</v>
+      </c>
+      <c r="C53">
+        <v>-0.1691623812955873</v>
+      </c>
+      <c r="D53">
+        <v>0.03908694251388297</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.001634797638716267</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008647391308796821</v>
+      </c>
+      <c r="C54">
+        <v>-0.05577508884220078</v>
+      </c>
+      <c r="D54">
+        <v>0.04220595862325191</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.004230570360440779</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009436596054511952</v>
+      </c>
+      <c r="C55">
+        <v>-0.1098066512450755</v>
+      </c>
+      <c r="D55">
+        <v>0.04617873306789558</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.002927446092564053</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.01996348743805901</v>
+      </c>
+      <c r="C56">
+        <v>-0.1758593166785687</v>
+      </c>
+      <c r="D56">
+        <v>0.03599816324368551</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.007068950857341593</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01962511565985456</v>
+      </c>
+      <c r="C58">
+        <v>-0.1130722357700014</v>
+      </c>
+      <c r="D58">
+        <v>0.04960813838516023</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.006672199190221047</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009308384665492763</v>
+      </c>
+      <c r="C59">
+        <v>-0.1608834913460145</v>
+      </c>
+      <c r="D59">
+        <v>-0.3064631570934673</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.004129595754562248</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02323599702202051</v>
+      </c>
+      <c r="C60">
+        <v>-0.2216073834154081</v>
+      </c>
+      <c r="D60">
+        <v>0.02468313536860666</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01395563372990457</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.001936035877993102</v>
+      </c>
+      <c r="C61">
+        <v>-0.0954074338398492</v>
+      </c>
+      <c r="D61">
+        <v>0.05681534697256653</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1684626349250226</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1444992711163319</v>
+      </c>
+      <c r="C62">
+        <v>-0.09010586038323637</v>
+      </c>
+      <c r="D62">
+        <v>0.05189512359488302</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.00118001693838739</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006198996028216008</v>
+      </c>
+      <c r="C63">
+        <v>-0.0567020281957788</v>
+      </c>
+      <c r="D63">
+        <v>0.0248957254367733</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.004831612113655946</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01495484475927569</v>
+      </c>
+      <c r="C64">
+        <v>-0.1046120377362314</v>
+      </c>
+      <c r="D64">
+        <v>0.05743595820915079</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.002119851871270402</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.0174845730533392</v>
+      </c>
+      <c r="C65">
+        <v>-0.1206318179779423</v>
+      </c>
+      <c r="D65">
+        <v>0.01808465637959155</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.007155712836328016</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01268819179530642</v>
+      </c>
+      <c r="C66">
+        <v>-0.1598912975813299</v>
+      </c>
+      <c r="D66">
+        <v>0.1118712731141814</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.003961823495006741</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01554299004630856</v>
+      </c>
+      <c r="C67">
+        <v>-0.06453784748830386</v>
+      </c>
+      <c r="D67">
+        <v>0.02638445484319649</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.006174947252798444</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0005720249958734011</v>
+      </c>
+      <c r="C68">
+        <v>-0.08723740413945981</v>
+      </c>
+      <c r="D68">
+        <v>-0.253157648980983</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.002741605779821351</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.006017982964361965</v>
+      </c>
+      <c r="C69">
+        <v>-0.05038213980541452</v>
+      </c>
+      <c r="D69">
+        <v>0.04026101437733843</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-0.0002700203201787518</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001797027425850995</v>
+      </c>
+      <c r="C70">
+        <v>-0.002260963224027729</v>
+      </c>
+      <c r="D70">
+        <v>0.001264460501640197</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.0002022356472892576</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.005810518379508895</v>
+      </c>
+      <c r="C71">
+        <v>-0.09704399639809037</v>
+      </c>
+      <c r="D71">
+        <v>-0.3000070607588457</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.004657171008549998</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01554752541250035</v>
+      </c>
+      <c r="C72">
+        <v>-0.1503365702605156</v>
+      </c>
+      <c r="D72">
+        <v>0.02090219509519521</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01230804211437201</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.02944372837681677</v>
+      </c>
+      <c r="C73">
+        <v>-0.2765350826212434</v>
+      </c>
+      <c r="D73">
+        <v>0.04432403883464948</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.004698397850501394</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001711228162245288</v>
+      </c>
+      <c r="C74">
+        <v>-0.1055996266079188</v>
+      </c>
+      <c r="D74">
+        <v>0.04043338513089023</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.002321589604087599</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01088366552472337</v>
+      </c>
+      <c r="C75">
+        <v>-0.1296393530623597</v>
+      </c>
+      <c r="D75">
+        <v>0.02402042635654059</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.009460951650651826</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02168387571221937</v>
+      </c>
+      <c r="C76">
+        <v>-0.1513566230331249</v>
+      </c>
+      <c r="D76">
+        <v>0.06589837885777206</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.0007141513871053887</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02343270645631202</v>
+      </c>
+      <c r="C77">
+        <v>-0.1306127768449144</v>
+      </c>
+      <c r="D77">
+        <v>0.0493804320139192</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.00101058757943274</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01441825821846459</v>
+      </c>
+      <c r="C78">
+        <v>-0.09460483607919029</v>
+      </c>
+      <c r="D78">
+        <v>0.06640249238739393</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02374943826565733</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03749588729378082</v>
+      </c>
+      <c r="C79">
+        <v>-0.1568751699467643</v>
+      </c>
+      <c r="D79">
+        <v>0.03663263140928066</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.004453497782958417</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01056419241560654</v>
+      </c>
+      <c r="C80">
+        <v>-0.04320937501605593</v>
+      </c>
+      <c r="D80">
+        <v>0.02762605592437838</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.001046007392782696</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01501166984841906</v>
+      </c>
+      <c r="C81">
+        <v>-0.12706351949915</v>
+      </c>
+      <c r="D81">
+        <v>0.04466326703067468</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.005904832097244494</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01988599144430555</v>
+      </c>
+      <c r="C82">
+        <v>-0.1449738454912714</v>
+      </c>
+      <c r="D82">
+        <v>0.04468461610464916</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.009363269397418626</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.009978478286571368</v>
+      </c>
+      <c r="C83">
+        <v>-0.05683539553624509</v>
+      </c>
+      <c r="D83">
+        <v>0.05592139988183243</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.0136592950919439</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.0116588491755905</v>
+      </c>
+      <c r="C84">
+        <v>-0.03748537787337676</v>
+      </c>
+      <c r="D84">
+        <v>-0.008274328002911996</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01471044865249681</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02808883282352279</v>
+      </c>
+      <c r="C85">
+        <v>-0.1288275718238023</v>
+      </c>
+      <c r="D85">
+        <v>0.04709039926148238</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.0007247016227623245</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.005454333198982256</v>
+      </c>
+      <c r="C86">
+        <v>-0.05051179082720558</v>
+      </c>
+      <c r="D86">
+        <v>0.02228694866241803</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.004248720158789334</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01014331573129805</v>
+      </c>
+      <c r="C87">
+        <v>-0.1315969316532537</v>
+      </c>
+      <c r="D87">
+        <v>0.06395864855009832</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01289021985931672</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002973771698961064</v>
+      </c>
+      <c r="C88">
+        <v>-0.06737571538394416</v>
+      </c>
+      <c r="D88">
+        <v>0.009817047470229455</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01430100215086707</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.00173649809790952</v>
+      </c>
+      <c r="C89">
+        <v>-0.1458597621915641</v>
+      </c>
+      <c r="D89">
+        <v>-0.3478492515322697</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.002348711609208783</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.00661025582585755</v>
+      </c>
+      <c r="C90">
+        <v>-0.1212688885875906</v>
+      </c>
+      <c r="D90">
+        <v>-0.3249246559980246</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.001331299987800646</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01040772218557482</v>
+      </c>
+      <c r="C91">
+        <v>-0.1035856191275514</v>
+      </c>
+      <c r="D91">
+        <v>0.02393141575948102</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.008500433410842622</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.0005317747008878564</v>
+      </c>
+      <c r="C92">
+        <v>-0.1350904522547926</v>
+      </c>
+      <c r="D92">
+        <v>-0.3356309503535722</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.0001241677296058365</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.004588075228976835</v>
+      </c>
+      <c r="C93">
+        <v>-0.104402207407783</v>
+      </c>
+      <c r="D93">
+        <v>-0.3127177053213673</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.004211160125807715</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02240512095735911</v>
+      </c>
+      <c r="C94">
+        <v>-0.1508496097082096</v>
+      </c>
+      <c r="D94">
+        <v>0.05070308473211564</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.005337089030123076</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01633124534734838</v>
+      </c>
+      <c r="C95">
+        <v>-0.1276509445474044</v>
+      </c>
+      <c r="D95">
+        <v>0.06511613358206789</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.00177151960146382</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03493194403219484</v>
+      </c>
+      <c r="C97">
+        <v>-0.2007241293018002</v>
+      </c>
+      <c r="D97">
+        <v>-0.004262727962557945</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.004107128500198861</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03626681297997511</v>
+      </c>
+      <c r="C98">
+        <v>-0.2463820751407939</v>
+      </c>
+      <c r="D98">
+        <v>0.04861172397627207</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9838166251211369</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9824787325510825</v>
+      </c>
+      <c r="C99">
+        <v>0.1137156312257304</v>
+      </c>
+      <c r="D99">
+        <v>-0.02843875544525768</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.0008585141637190851</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003105179593826627</v>
+      </c>
+      <c r="C101">
+        <v>-0.04973279641826319</v>
+      </c>
+      <c r="D101">
+        <v>0.003932433319305699</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
